--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed3/result_data_RandomForest.xlsx
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.858199999999999</v>
+        <v>-7.9075</v>
       </c>
     </row>
     <row r="11">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.926799999999997</v>
+        <v>-5.989899999999998</v>
       </c>
     </row>
     <row r="13">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.748100000000001</v>
+        <v>-8.640099999999999</v>
       </c>
     </row>
     <row r="19">
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.332400000000003</v>
+        <v>-8.148900000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-9.103199999999999</v>
+        <v>-8.969100000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1390,7 +1390,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.939499999999996</v>
+        <v>-6.951599999999996</v>
       </c>
     </row>
     <row r="69">
@@ -1516,7 +1516,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.279199999999999</v>
+        <v>-6.317199999999997</v>
       </c>
     </row>
     <row r="78">
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.706700000000001</v>
+        <v>-7.849900000000002</v>
       </c>
     </row>
     <row r="79">
